--- a/data/trans_orig/IP07A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6CA933C-B9A9-4D01-8FBA-6CD379208EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90FC49EF-919F-48FE-B3BD-B65C96C7CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{16D4EDF7-3DF3-40BF-9B67-9BED97FB7C33}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9857F4D-3367-4C90-93AF-CDF1154F951A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="460">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>46,9%</t>
   </si>
   <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
   </si>
   <si>
     <t>42,22%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -106,28 +106,28 @@
     <t>43,03%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>52,0%</t>
   </si>
   <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
   </si>
   <si>
     <t>47,67%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -136,1267 +136,1288 @@
     <t>7,22%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>0,97%</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9421D6E-F026-4C47-9E46-977B100ADA9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56014A7F-F88E-4481-A004-6B70CF1F937C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2737,7 +2758,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,7 +2794,7 @@
         <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2788,7 +2809,7 @@
         <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2877,13 @@
         <v>139413</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>185</v>
@@ -2871,13 +2892,13 @@
         <v>126340</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
@@ -2886,13 +2907,13 @@
         <v>265754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2928,13 @@
         <v>170885</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H23" s="7">
         <v>241</v>
@@ -2922,13 +2943,13 @@
         <v>161950</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>496</v>
@@ -2937,13 +2958,13 @@
         <v>332835</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2979,13 @@
         <v>30717</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -2973,13 +2994,13 @@
         <v>27341</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -2988,13 +3009,13 @@
         <v>58057</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3030,13 @@
         <v>3893</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3024,13 +3045,13 @@
         <v>4130</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -3042,10 +3063,10 @@
         <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3081,13 @@
         <v>680</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3075,13 +3096,13 @@
         <v>1884</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3090,13 +3111,13 @@
         <v>2563</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3173,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501F14BE-72D5-4212-91BE-AE6FC07D535F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EC7785-A5B7-4982-BD11-31ABC07CDE45}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3295,13 +3316,13 @@
         <v>12788</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -3310,13 +3331,13 @@
         <v>13601</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -3325,13 +3346,13 @@
         <v>26389</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3367,13 @@
         <v>25694</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
         <v>47</v>
@@ -3361,13 +3382,13 @@
         <v>33068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
         <v>83</v>
@@ -3376,13 +3397,13 @@
         <v>58762</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3418,13 @@
         <v>5463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3412,13 +3433,13 @@
         <v>5722</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3427,13 +3448,13 @@
         <v>11184</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3469,13 @@
         <v>607</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3469,7 +3490,7 @@
         <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3478,13 +3499,13 @@
         <v>607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3520,13 @@
         <v>654</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3520,7 +3541,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3529,13 +3550,13 @@
         <v>654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3624,13 @@
         <v>90911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -3618,13 +3639,13 @@
         <v>69721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -3633,13 +3654,13 @@
         <v>160631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,10 +3678,10 @@
         <v>75</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>165</v>
@@ -3669,13 +3690,13 @@
         <v>115760</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>330</v>
@@ -3684,13 +3705,13 @@
         <v>229742</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3726,13 @@
         <v>14745</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -3720,13 +3741,13 @@
         <v>15253</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -3735,13 +3756,13 @@
         <v>29998</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3777,13 @@
         <v>3826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3771,13 +3792,13 @@
         <v>3528</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3786,13 +3807,13 @@
         <v>7354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,10 +3831,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3822,13 +3843,13 @@
         <v>1881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -3837,13 +3858,13 @@
         <v>6494</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3932,13 @@
         <v>20463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3926,13 +3947,13 @@
         <v>29366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3941,13 +3962,13 @@
         <v>49829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3983,13 @@
         <v>31433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3977,13 +3998,13 @@
         <v>28079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -3992,13 +4013,13 @@
         <v>59513</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4034,13 @@
         <v>5094</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4028,13 +4049,13 @@
         <v>4671</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -4043,13 +4064,13 @@
         <v>9766</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4085,13 @@
         <v>942</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4085,7 +4106,7 @@
         <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4094,13 +4115,13 @@
         <v>942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4142,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4130,13 +4151,13 @@
         <v>627</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4145,13 +4166,13 @@
         <v>627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4240,13 @@
         <v>124162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>161</v>
@@ -4234,13 +4255,13 @@
         <v>112687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -4249,13 +4270,13 @@
         <v>236850</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4291,13 @@
         <v>171109</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H23" s="7">
         <v>252</v>
@@ -4285,13 +4306,13 @@
         <v>176908</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M23" s="7">
         <v>498</v>
@@ -4300,13 +4321,13 @@
         <v>348016</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4342,13 @@
         <v>25302</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -4336,13 +4357,13 @@
         <v>25646</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M24" s="7">
         <v>74</v>
@@ -4351,13 +4372,13 @@
         <v>50948</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4393,13 @@
         <v>5374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4387,13 +4408,13 @@
         <v>3528</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -4405,10 +4426,10 @@
         <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4444,13 @@
         <v>5267</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4438,13 +4459,13 @@
         <v>2508</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -4453,13 +4474,13 @@
         <v>7775</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4536,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABC0E36-AF70-49EE-828B-3B19A2C9CCE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8B1D97-A11A-448E-BB09-41B67AC6544D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4551,7 +4572,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4661,10 +4682,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4673,13 +4694,13 @@
         <v>12712</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -4688,13 +4709,13 @@
         <v>26354</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4730,13 @@
         <v>19339</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4724,13 +4745,13 @@
         <v>15010</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>48</v>
@@ -4739,13 +4760,13 @@
         <v>34349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4781,13 @@
         <v>3041</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4775,13 +4796,13 @@
         <v>4092</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4790,13 +4811,13 @@
         <v>7133</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,7 +4838,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4832,7 +4853,7 @@
         <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4847,7 +4868,7 @@
         <v>50</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4889,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4883,7 +4904,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4898,7 +4919,7 @@
         <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4987,13 @@
         <v>115969</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -4981,13 +5002,13 @@
         <v>110792</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>317</v>
@@ -4996,13 +5017,13 @@
         <v>226761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5038,13 @@
         <v>112960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>165</v>
@@ -5032,13 +5053,13 @@
         <v>113939</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>319</v>
@@ -5047,13 +5068,13 @@
         <v>226899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5089,13 @@
         <v>11193</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -5083,13 +5104,13 @@
         <v>18951</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -5098,13 +5119,13 @@
         <v>30144</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5140,13 @@
         <v>4492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5134,13 +5155,13 @@
         <v>4747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5149,13 +5170,13 @@
         <v>9239</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5191,13 @@
         <v>1370</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5185,13 +5206,13 @@
         <v>1409</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5200,13 +5221,13 @@
         <v>2780</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5295,13 @@
         <v>42310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5289,13 +5310,13 @@
         <v>33313</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -5304,13 +5325,13 @@
         <v>75623</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5346,13 @@
         <v>31869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -5340,13 +5361,13 @@
         <v>36662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -5355,13 +5376,13 @@
         <v>68532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5397,13 @@
         <v>3212</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>268</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>153</v>
+        <v>413</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -5391,13 +5412,13 @@
         <v>3717</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5406,13 +5427,13 @@
         <v>6928</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,7 +5454,7 @@
         <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5442,13 +5463,13 @@
         <v>706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5457,13 +5478,13 @@
         <v>706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,7 +5505,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5499,7 +5520,7 @@
         <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5514,7 +5535,7 @@
         <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5603,13 @@
         <v>171921</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>225</v>
@@ -5597,13 +5618,13 @@
         <v>156817</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>461</v>
@@ -5612,13 +5633,13 @@
         <v>328738</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5654,13 @@
         <v>164169</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>236</v>
@@ -5648,13 +5669,13 @@
         <v>165611</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="M23" s="7">
         <v>460</v>
@@ -5663,13 +5684,13 @@
         <v>329779</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>70</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5705,13 @@
         <v>17446</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -5699,13 +5720,13 @@
         <v>26760</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>63</v>
@@ -5714,13 +5735,13 @@
         <v>44206</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>438</v>
+        <v>45</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5756,13 @@
         <v>4492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -5750,13 +5771,13 @@
         <v>5453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5765,13 +5786,13 @@
         <v>9946</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5807,13 @@
         <v>1370</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5801,13 +5822,13 @@
         <v>1409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5816,13 +5837,13 @@
         <v>2780</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +5899,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90FC49EF-919F-48FE-B3BD-B65C96C7CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14328562-E5BA-4630-AE9F-6E0B957C96BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9857F4D-3367-4C90-93AF-CDF1154F951A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{38C88E00-DB58-4AB5-9324-775C7BD0DD86}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="450">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1351 +73,1321 @@
     <t>Muchísimo</t>
   </si>
   <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
     <t>46,9%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>42,22%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>Mucho</t>
   </si>
   <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>47,67%</t>
   </si>
   <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
     <t>39,64%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56014A7F-F88E-4481-A004-6B70CF1F937C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8B7F7D-8CE0-44BE-A649-69E9D59A397D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1947,10 +1917,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>22150</v>
+        <v>19189</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1962,10 +1932,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>19189</v>
+        <v>22150</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1998,10 +1968,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>20325</v>
+        <v>26349</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2013,10 +1983,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>26349</v>
+        <v>20325</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2049,10 +2019,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>3409</v>
+        <v>2622</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2064,10 +2034,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>2622</v>
+        <v>3409</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2100,10 +2070,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1347</v>
+        <v>630</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2115,10 +2085,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>630</v>
+        <v>1347</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2151,28 +2121,28 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1884</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1884</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>53</v>
@@ -2202,25 +2172,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50674</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50674</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -2255,10 +2225,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7">
-        <v>88891</v>
+        <v>82369</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2270,10 +2240,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="I10" s="7">
-        <v>82369</v>
+        <v>88891</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2306,10 +2276,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="D11" s="7">
-        <v>122861</v>
+        <v>98107</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -2321,10 +2291,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="I11" s="7">
-        <v>98107</v>
+        <v>122861</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -2357,10 +2327,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7">
-        <v>22985</v>
+        <v>20867</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -2372,10 +2342,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7">
-        <v>20867</v>
+        <v>22985</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -2411,7 +2381,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2546</v>
+        <v>2774</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>87</v>
@@ -2426,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2774</v>
+        <v>2546</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>90</v>
@@ -2459,31 +2429,31 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>680</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>98</v>
@@ -2510,25 +2480,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>305</v>
+      </c>
+      <c r="D15" s="7">
+        <v>204117</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="7">
         <v>359</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237963</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="7">
-        <v>305</v>
-      </c>
-      <c r="I15" s="7">
-        <v>204117</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -2563,10 +2533,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>28373</v>
+        <v>24782</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>102</v>
@@ -2578,10 +2548,10 @@
         <v>104</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I16" s="7">
-        <v>24782</v>
+        <v>28373</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>105</v>
@@ -2614,10 +2584,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>27699</v>
+        <v>37494</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>111</v>
@@ -2629,10 +2599,10 @@
         <v>113</v>
       </c>
       <c r="H17" s="7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>37494</v>
+        <v>27699</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>114</v>
@@ -2665,10 +2635,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>4323</v>
+        <v>3852</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>120</v>
@@ -2680,10 +2650,10 @@
         <v>122</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>3852</v>
+        <v>4323</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>123</v>
@@ -2716,31 +2686,31 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>726</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>726</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>131</v>
@@ -2758,7 +2728,7 @@
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,10 +2746,10 @@
         <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2791,10 +2761,10 @@
         <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2806,10 +2776,10 @@
         <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,25 +2788,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -2871,34 +2841,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>185</v>
+      </c>
+      <c r="D22" s="7">
+        <v>126340</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="7">
         <v>211</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>139413</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="7">
-        <v>185</v>
-      </c>
-      <c r="I22" s="7">
-        <v>126340</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
@@ -2907,13 +2877,13 @@
         <v>265754</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,34 +2892,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>241</v>
+      </c>
+      <c r="D23" s="7">
+        <v>161950</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="7">
         <v>255</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>170885</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="7">
-        <v>241</v>
-      </c>
-      <c r="I23" s="7">
-        <v>161950</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>496</v>
@@ -2958,13 +2928,13 @@
         <v>332835</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,34 +2943,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>42</v>
+      </c>
+      <c r="D24" s="7">
+        <v>27341</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="7">
         <v>46</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>30717</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="7">
-        <v>42</v>
-      </c>
-      <c r="I24" s="7">
-        <v>27341</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -3009,13 +2979,13 @@
         <v>58057</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,31 +2997,31 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>3893</v>
+        <v>4130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>4130</v>
+        <v>3893</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -3063,10 +3033,10 @@
         <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,34 +3045,34 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1884</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>680</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1884</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3111,13 +3081,13 @@
         <v>2563</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,25 +3096,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>477</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321645</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>345587</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>477</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321645</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -3173,7 +3143,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EC7785-A5B7-4982-BD11-31ABC07CDE45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE1BBA3-152C-469E-9FB4-AC442D1AF981}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3209,7 +3179,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3310,34 +3280,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13601</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="7">
         <v>18</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>12788</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="7">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13601</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -3346,13 +3316,13 @@
         <v>26389</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,34 +3331,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>47</v>
+      </c>
+      <c r="D5" s="7">
+        <v>33068</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="7">
         <v>36</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>25694</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="7">
-        <v>47</v>
-      </c>
-      <c r="I5" s="7">
-        <v>33068</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M5" s="7">
         <v>83</v>
@@ -3397,13 +3367,13 @@
         <v>58762</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,34 +3382,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5722</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>5463</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5722</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3448,13 +3418,13 @@
         <v>11184</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,34 +3433,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>607</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3499,13 +3469,13 @@
         <v>607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,34 +3484,34 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>654</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3550,13 +3520,13 @@
         <v>654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,25 +3535,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>74</v>
+      </c>
+      <c r="D9" s="7">
+        <v>52391</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45205</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="7">
-        <v>74</v>
-      </c>
-      <c r="I9" s="7">
-        <v>52391</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -3618,34 +3588,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>101</v>
+      </c>
+      <c r="D10" s="7">
+        <v>69721</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="7">
         <v>132</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>90911</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="7">
-        <v>101</v>
-      </c>
-      <c r="I10" s="7">
-        <v>69721</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -3654,13 +3624,13 @@
         <v>160631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,31 +3642,31 @@
         <v>165</v>
       </c>
       <c r="D11" s="7">
-        <v>113982</v>
+        <v>115760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
         <v>165</v>
       </c>
       <c r="I11" s="7">
-        <v>115760</v>
+        <v>113982</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>330</v>
@@ -3705,13 +3675,13 @@
         <v>229742</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,34 +3690,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>15253</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="7">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>14745</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H12" s="7">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7">
-        <v>15253</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -3756,13 +3726,13 @@
         <v>29998</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,34 +3741,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3528</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3826</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3528</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3807,13 +3777,13 @@
         <v>7354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,34 +3792,34 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1881</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="7">
         <v>7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>4613</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1881</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -3858,13 +3828,13 @@
         <v>6494</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,25 +3843,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>295</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206144</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="7">
         <v>333</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>228076</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="7">
-        <v>295</v>
-      </c>
-      <c r="I15" s="7">
-        <v>206144</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -3926,34 +3896,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7">
+        <v>29366</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H16" s="7">
         <v>31</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20463</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H16" s="7">
-        <v>40</v>
-      </c>
-      <c r="I16" s="7">
-        <v>29366</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3962,13 +3932,13 @@
         <v>49829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,34 +3947,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7">
+        <v>28079</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="7">
         <v>45</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>31433</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H17" s="7">
-        <v>40</v>
-      </c>
-      <c r="I17" s="7">
-        <v>28079</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4013,13 +3983,13 @@
         <v>59513</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,34 +3998,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4671</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5094</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4671</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -4064,13 +4034,13 @@
         <v>9766</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,34 +4049,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>942</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4115,13 +4085,13 @@
         <v>942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,34 +4100,34 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>627</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>627</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>289</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4166,13 +4136,13 @@
         <v>627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,25 +4151,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7">
+        <v>62743</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>87</v>
-      </c>
-      <c r="I21" s="7">
-        <v>62743</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -4234,34 +4204,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>161</v>
+      </c>
+      <c r="D22" s="7">
+        <v>112687</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="7">
         <v>181</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>124162</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H22" s="7">
-        <v>161</v>
-      </c>
-      <c r="I22" s="7">
-        <v>112687</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -4270,13 +4240,13 @@
         <v>236850</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,34 +4255,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>252</v>
+      </c>
+      <c r="D23" s="7">
+        <v>176908</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" s="7">
         <v>246</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>171109</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H23" s="7">
-        <v>252</v>
-      </c>
-      <c r="I23" s="7">
-        <v>176908</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>498</v>
@@ -4321,13 +4291,13 @@
         <v>348016</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,34 +4306,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7">
+        <v>25646</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H24" s="7">
         <v>39</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>25302</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H24" s="7">
-        <v>35</v>
-      </c>
-      <c r="I24" s="7">
-        <v>25646</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M24" s="7">
         <v>74</v>
@@ -4372,13 +4342,13 @@
         <v>50948</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>318</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,34 +4357,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3528</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H25" s="7">
         <v>8</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5374</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3528</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -4423,13 +4393,13 @@
         <v>8903</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>324</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,34 +4408,34 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2508</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H26" s="7">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>5267</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2508</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -4474,13 +4444,13 @@
         <v>7775</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>329</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,25 +4459,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>456</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321278</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>331214</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>456</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321278</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -4536,7 +4506,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8B1D97-A11A-448E-BB09-41B67AC6544D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB4CA9E-EEB6-41C6-A3C0-2D4F701CE6A2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4572,7 +4542,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4676,31 +4646,31 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>13642</v>
+        <v>12712</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>12712</v>
+        <v>13642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -4709,13 +4679,13 @@
         <v>26354</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,34 +4694,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15010</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" s="7">
         <v>27</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>19339</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>15010</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>48</v>
@@ -4760,13 +4730,13 @@
         <v>34349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,34 +4745,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4092</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3041</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4092</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>352</v>
+        <v>95</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4811,13 +4781,13 @@
         <v>7133</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,10 +4805,10 @@
         <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4850,10 +4820,10 @@
         <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4865,10 +4835,10 @@
         <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,10 +4856,10 @@
         <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4901,10 +4871,10 @@
         <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4916,10 +4886,10 @@
         <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,25 +4898,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7">
         <v>50</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36022</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -4981,34 +4951,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>159</v>
+      </c>
+      <c r="D10" s="7">
+        <v>110792</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H10" s="7">
         <v>158</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>115969</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H10" s="7">
-        <v>159</v>
-      </c>
-      <c r="I10" s="7">
-        <v>110792</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>317</v>
@@ -5017,13 +4987,13 @@
         <v>226761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,34 +5002,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>165</v>
+      </c>
+      <c r="D11" s="7">
+        <v>113939</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="7">
         <v>154</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>112960</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H11" s="7">
-        <v>165</v>
-      </c>
-      <c r="I11" s="7">
-        <v>113939</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>319</v>
@@ -5068,13 +5038,13 @@
         <v>226899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,34 +5053,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18951</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H12" s="7">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>11193</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H12" s="7">
-        <v>26</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18951</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -5119,13 +5089,13 @@
         <v>30144</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,34 +5104,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4747</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4492</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4747</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5170,13 +5140,13 @@
         <v>9239</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,31 +5158,31 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1370</v>
+        <v>1409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1409</v>
+        <v>1370</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5221,13 +5191,13 @@
         <v>2780</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,25 +5206,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>359</v>
+      </c>
+      <c r="D15" s="7">
+        <v>249838</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="7">
         <v>336</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>245985</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="7">
-        <v>359</v>
-      </c>
-      <c r="I15" s="7">
-        <v>249838</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -5289,34 +5259,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7">
+        <v>33313</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H16" s="7">
         <v>59</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>42310</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H16" s="7">
-        <v>47</v>
-      </c>
-      <c r="I16" s="7">
-        <v>33313</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -5325,13 +5295,13 @@
         <v>75623</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,34 +5310,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>50</v>
+      </c>
+      <c r="D17" s="7">
+        <v>36662</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H17" s="7">
         <v>43</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>31869</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H17" s="7">
-        <v>50</v>
-      </c>
-      <c r="I17" s="7">
-        <v>36662</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -5376,13 +5346,13 @@
         <v>68532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,34 +5361,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3717</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3212</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3717</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5427,13 +5397,13 @@
         <v>6928</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,34 +5412,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>706</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>706</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5478,13 +5448,13 @@
         <v>706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,10 +5472,10 @@
         <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5517,10 +5487,10 @@
         <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5532,10 +5502,10 @@
         <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,25 +5514,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>107</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>77391</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -5597,34 +5567,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>225</v>
+      </c>
+      <c r="D22" s="7">
+        <v>156817</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H22" s="7">
         <v>236</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>171921</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H22" s="7">
-        <v>225</v>
-      </c>
-      <c r="I22" s="7">
-        <v>156817</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>461</v>
@@ -5633,13 +5603,13 @@
         <v>328738</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,34 +5618,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>236</v>
+      </c>
+      <c r="D23" s="7">
+        <v>165611</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H23" s="7">
         <v>224</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>164169</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H23" s="7">
-        <v>236</v>
-      </c>
-      <c r="I23" s="7">
-        <v>165611</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="M23" s="7">
         <v>460</v>
@@ -5684,13 +5654,13 @@
         <v>329779</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,34 +5669,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>38</v>
+      </c>
+      <c r="D24" s="7">
+        <v>26760</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H24" s="7">
         <v>25</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>17446</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="J24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="7">
-        <v>26760</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="M24" s="7">
         <v>63</v>
@@ -5735,13 +5705,13 @@
         <v>44206</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,34 +5720,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5453</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4492</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5453</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5786,13 +5756,13 @@
         <v>9946</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,31 +5774,31 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1370</v>
+        <v>1409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1409</v>
+        <v>1370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5840,10 +5810,10 @@
         <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,25 +5822,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>509</v>
+      </c>
+      <c r="D27" s="7">
+        <v>356050</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>493</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>359398</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>509</v>
-      </c>
-      <c r="I27" s="7">
-        <v>356050</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -5899,7 +5869,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
